--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A4E2A5-079E-400F-B105-756BBC44A916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83A4D9-FDCF-48F7-B132-DBAC87D0D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Summe Projektzeiten" sheetId="2" r:id="rId2"/>
     <sheet name="Hinweise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -75,6 +77,9 @@
   </si>
   <si>
     <t>Planung und Konzeption des Tower Defense Spiels, Suche nach besten Wegen Funktionalitäten zu implementieren</t>
+  </si>
+  <si>
+    <t>Erstellung des Grid Systems für das Bauen der Türme, das spätere Pathfinding und evtl. Visualisierung</t>
   </si>
 </sst>
 </file>
@@ -200,10 +205,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +526,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,25 +540,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -561,7 +566,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -582,7 +587,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45098</v>
       </c>
       <c r="B6" s="5">
@@ -595,16 +600,20 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>45099</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="9">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45100</v>
       </c>
       <c r="B8" s="9"/>
@@ -613,7 +622,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>45101</v>
       </c>
       <c r="B9" s="9"/>
@@ -622,7 +631,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>45102</v>
       </c>
       <c r="B10" s="9"/>
@@ -631,7 +640,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>45103</v>
       </c>
       <c r="B11" s="10"/>
@@ -640,7 +649,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>45104</v>
       </c>
       <c r="B12" s="9"/>
@@ -649,7 +658,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>45105</v>
       </c>
       <c r="B13" s="9"/>
@@ -658,7 +667,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>45106</v>
       </c>
       <c r="B14" s="9"/>
@@ -667,7 +676,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>45107</v>
       </c>
       <c r="B15" s="9"/>
@@ -676,7 +685,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>45108</v>
       </c>
       <c r="B16" s="9"/>
@@ -685,7 +694,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>45109</v>
       </c>
       <c r="B17" s="9"/>
@@ -694,7 +703,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>45110</v>
       </c>
       <c r="B18" s="9"/>
@@ -703,7 +712,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>45111</v>
       </c>
       <c r="B19" s="9"/>
@@ -712,7 +721,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>45112</v>
       </c>
       <c r="B20" s="9"/>
@@ -721,7 +730,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>45113</v>
       </c>
       <c r="B21" s="12"/>
@@ -730,7 +739,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>45114</v>
       </c>
       <c r="B22" s="9"/>
@@ -739,7 +748,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>45115</v>
       </c>
       <c r="B23" s="9"/>
@@ -748,7 +757,7 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>45116</v>
       </c>
       <c r="B24" s="9"/>
@@ -757,7 +766,7 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>45117</v>
       </c>
       <c r="B25" s="9"/>
@@ -766,7 +775,7 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>45118</v>
       </c>
       <c r="B26" s="9"/>
@@ -775,7 +784,7 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>45119</v>
       </c>
       <c r="B27" s="9"/>
@@ -784,7 +793,7 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>45120</v>
       </c>
       <c r="B28" s="9"/>
@@ -793,7 +802,7 @@
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>45121</v>
       </c>
       <c r="B29" s="9"/>
@@ -802,7 +811,7 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>45122</v>
       </c>
       <c r="B30" s="9"/>
@@ -811,7 +820,7 @@
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>45123</v>
       </c>
       <c r="B31" s="9"/>
@@ -820,7 +829,7 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>45124</v>
       </c>
       <c r="B32" s="9"/>
@@ -829,7 +838,7 @@
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>45125</v>
       </c>
       <c r="B33" s="9"/>
@@ -838,7 +847,7 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>45126</v>
       </c>
       <c r="B34" s="12"/>
@@ -847,7 +856,7 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>45127</v>
       </c>
       <c r="B35" s="9"/>
@@ -856,7 +865,7 @@
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <v>45128</v>
       </c>
       <c r="B36" s="9"/>
@@ -865,7 +874,7 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>45129</v>
       </c>
       <c r="B37" s="9"/>
@@ -874,7 +883,7 @@
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <v>45130</v>
       </c>
       <c r="B38" s="9"/>
@@ -883,7 +892,7 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>45131</v>
       </c>
       <c r="B39" s="9"/>
@@ -892,7 +901,7 @@
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>45132</v>
       </c>
       <c r="B40" s="9"/>
@@ -901,7 +910,7 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>45133</v>
       </c>
       <c r="B41" s="9"/>
@@ -910,7 +919,7 @@
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>45134</v>
       </c>
       <c r="B42" s="9"/>
@@ -919,7 +928,7 @@
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>45135</v>
       </c>
       <c r="B43" s="9"/>
@@ -928,7 +937,7 @@
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>45136</v>
       </c>
       <c r="B44" s="9"/>
@@ -937,7 +946,7 @@
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>45137</v>
       </c>
       <c r="B45" s="9"/>
@@ -946,7 +955,7 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>45138</v>
       </c>
       <c r="B46" s="9"/>
@@ -955,7 +964,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>45139</v>
       </c>
       <c r="B47" s="9"/>
@@ -964,7 +973,7 @@
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <v>45140</v>
       </c>
       <c r="B48" s="12"/>
@@ -973,7 +982,7 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="24">
         <v>45141</v>
       </c>
       <c r="B49" s="9"/>
@@ -982,7 +991,7 @@
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="24">
         <v>45142</v>
       </c>
       <c r="B50" s="9"/>
@@ -991,7 +1000,7 @@
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
+      <c r="A51" s="24">
         <v>45143</v>
       </c>
       <c r="B51" s="9"/>
@@ -1000,7 +1009,7 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
+      <c r="A52" s="24">
         <v>45144</v>
       </c>
       <c r="B52" s="9"/>
@@ -1009,7 +1018,7 @@
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
+      <c r="A53" s="24">
         <v>45145</v>
       </c>
       <c r="B53" s="9"/>
@@ -1018,7 +1027,7 @@
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="24">
         <v>45146</v>
       </c>
       <c r="B54" s="9"/>
@@ -1027,7 +1036,7 @@
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
+      <c r="A55" s="24">
         <v>45147</v>
       </c>
       <c r="B55" s="9"/>
@@ -1036,7 +1045,7 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+      <c r="A56" s="24">
         <v>45148</v>
       </c>
       <c r="B56" s="9"/>
@@ -1045,7 +1054,7 @@
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
+      <c r="A57" s="24">
         <v>45149</v>
       </c>
       <c r="B57" s="9"/>
@@ -1054,7 +1063,7 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="A58" s="24">
         <v>45150</v>
       </c>
       <c r="B58" s="9"/>
@@ -1063,7 +1072,7 @@
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
+      <c r="A59" s="24">
         <v>45151</v>
       </c>
       <c r="B59" s="9"/>
@@ -1072,7 +1081,7 @@
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
+      <c r="A60" s="24">
         <v>45152</v>
       </c>
       <c r="B60" s="9"/>
@@ -1081,7 +1090,7 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
+      <c r="A61" s="24">
         <v>45153</v>
       </c>
       <c r="B61" s="9"/>
@@ -1090,7 +1099,7 @@
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="24">
         <v>45154</v>
       </c>
       <c r="B62" s="12"/>
@@ -1099,7 +1108,7 @@
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
+      <c r="A63" s="24">
         <v>45155</v>
       </c>
       <c r="B63" s="9"/>
@@ -1108,7 +1117,7 @@
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+      <c r="A64" s="24">
         <v>45156</v>
       </c>
       <c r="B64" s="9"/>
@@ -1117,7 +1126,7 @@
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="A65" s="24">
         <v>45157</v>
       </c>
       <c r="B65" s="9"/>
@@ -1126,7 +1135,7 @@
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="24">
         <v>45158</v>
       </c>
       <c r="B66" s="9"/>
@@ -1135,7 +1144,7 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+      <c r="A67" s="24">
         <v>45159</v>
       </c>
       <c r="B67" s="9"/>
@@ -1144,7 +1153,7 @@
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
+      <c r="A68" s="24">
         <v>45160</v>
       </c>
       <c r="B68" s="9"/>
@@ -1153,7 +1162,7 @@
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
+      <c r="A69" s="24">
         <v>45161</v>
       </c>
       <c r="B69" s="9"/>
@@ -1162,7 +1171,7 @@
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="24">
         <v>45162</v>
       </c>
       <c r="B70" s="9"/>
@@ -1171,7 +1180,7 @@
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
+      <c r="A71" s="24">
         <v>45163</v>
       </c>
       <c r="B71" s="9"/>
@@ -1180,7 +1189,7 @@
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
+      <c r="A72" s="24">
         <v>45164</v>
       </c>
       <c r="B72" s="9"/>
@@ -1189,7 +1198,7 @@
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
+      <c r="A73" s="24">
         <v>45165</v>
       </c>
       <c r="B73" s="9"/>
@@ -1198,7 +1207,7 @@
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="A74" s="24">
         <v>45166</v>
       </c>
       <c r="B74" s="9"/>
@@ -1207,7 +1216,7 @@
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
+      <c r="A75" s="24">
         <v>45167</v>
       </c>
       <c r="B75" s="9"/>
@@ -1216,7 +1225,7 @@
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+      <c r="A76" s="24">
         <v>45168</v>
       </c>
       <c r="B76" s="12"/>
@@ -1225,7 +1234,7 @@
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
+      <c r="A77" s="24">
         <v>45169</v>
       </c>
       <c r="B77" s="9"/>
@@ -1234,7 +1243,7 @@
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="A78" s="24">
         <v>45170</v>
       </c>
       <c r="B78" s="9"/>
@@ -1243,7 +1252,7 @@
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
+      <c r="A79" s="24">
         <v>45171</v>
       </c>
       <c r="B79" s="9"/>
@@ -1252,7 +1261,7 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
+      <c r="A80" s="24">
         <v>45172</v>
       </c>
       <c r="B80" s="9"/>
@@ -1261,7 +1270,7 @@
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
+      <c r="A81" s="24">
         <v>45173</v>
       </c>
       <c r="B81" s="9"/>
@@ -1270,7 +1279,7 @@
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
+      <c r="A82" s="24">
         <v>45174</v>
       </c>
       <c r="B82" s="9"/>
@@ -1279,7 +1288,7 @@
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
+      <c r="A83" s="24">
         <v>45175</v>
       </c>
       <c r="B83" s="9"/>
@@ -1288,7 +1297,7 @@
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
+      <c r="A84" s="24">
         <v>45176</v>
       </c>
       <c r="B84" s="9"/>
@@ -1297,7 +1306,7 @@
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
+      <c r="A85" s="24">
         <v>45177</v>
       </c>
       <c r="B85" s="9"/>
@@ -1306,7 +1315,7 @@
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
+      <c r="A86" s="24">
         <v>45178</v>
       </c>
       <c r="B86" s="9"/>
@@ -1315,7 +1324,7 @@
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
+      <c r="A87" s="24">
         <v>45179</v>
       </c>
       <c r="B87" s="9"/>
@@ -1324,7 +1333,7 @@
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25">
+      <c r="A88" s="24">
         <v>45180</v>
       </c>
       <c r="B88" s="9"/>
@@ -1333,7 +1342,7 @@
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
+      <c r="A89" s="24">
         <v>45181</v>
       </c>
       <c r="B89" s="9"/>
@@ -1342,7 +1351,7 @@
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
+      <c r="A90" s="24">
         <v>45182</v>
       </c>
       <c r="B90" s="12"/>
@@ -1351,7 +1360,7 @@
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
+      <c r="A91" s="24">
         <v>45183</v>
       </c>
       <c r="B91" s="9"/>
@@ -1360,7 +1369,7 @@
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="25">
+      <c r="A92" s="24">
         <v>45184</v>
       </c>
       <c r="B92" s="9"/>
@@ -1369,7 +1378,7 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
+      <c r="A93" s="24">
         <v>45185</v>
       </c>
       <c r="B93" s="9"/>
@@ -1378,7 +1387,7 @@
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
+      <c r="A94" s="24">
         <v>45186</v>
       </c>
       <c r="B94" s="9"/>
@@ -1387,7 +1396,7 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25">
+      <c r="A95" s="24">
         <v>45187</v>
       </c>
       <c r="B95" s="9"/>
@@ -1396,7 +1405,7 @@
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25">
+      <c r="A96" s="24">
         <v>45188</v>
       </c>
       <c r="B96" s="9"/>
@@ -1405,7 +1414,7 @@
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
+      <c r="A97" s="24">
         <v>45189</v>
       </c>
       <c r="B97" s="9"/>
@@ -1414,7 +1423,7 @@
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="25">
+      <c r="A98" s="24">
         <v>45190</v>
       </c>
       <c r="B98" s="9"/>
@@ -1423,7 +1432,7 @@
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25">
+      <c r="A99" s="24">
         <v>45191</v>
       </c>
       <c r="B99" s="9"/>
@@ -1432,7 +1441,7 @@
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25">
+      <c r="A100" s="24">
         <v>45192</v>
       </c>
       <c r="B100" s="9"/>
@@ -1441,7 +1450,7 @@
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
+      <c r="A101" s="24">
         <v>45193</v>
       </c>
       <c r="B101" s="9"/>
@@ -1450,7 +1459,7 @@
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="25">
+      <c r="A102" s="24">
         <v>45194</v>
       </c>
       <c r="B102" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="25">
+      <c r="A103" s="24">
         <v>45195</v>
       </c>
       <c r="B103" s="9"/>
@@ -1468,7 +1477,7 @@
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25">
+      <c r="A104" s="24">
         <v>45196</v>
       </c>
       <c r="B104" s="9"/>
@@ -1477,7 +1486,7 @@
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="25">
+      <c r="A105" s="24">
         <v>45197</v>
       </c>
       <c r="B105" s="9"/>
@@ -1486,7 +1495,7 @@
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25">
+      <c r="A106" s="24">
         <v>45198</v>
       </c>
       <c r="B106" s="9"/>
@@ -1495,7 +1504,7 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="25">
+      <c r="A107" s="24">
         <v>45199</v>
       </c>
       <c r="B107" s="9"/>
@@ -1504,7 +1513,7 @@
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="25">
+      <c r="A108" s="24">
         <v>45200</v>
       </c>
       <c r="B108" s="9"/>
@@ -1513,7 +1522,7 @@
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="25">
+      <c r="A109" s="24">
         <v>45201</v>
       </c>
       <c r="B109" s="9"/>
@@ -1522,7 +1531,7 @@
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
+      <c r="A110" s="24">
         <v>45202</v>
       </c>
       <c r="B110" s="9"/>
@@ -1531,7 +1540,7 @@
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25">
+      <c r="A111" s="24">
         <v>45203</v>
       </c>
       <c r="B111" s="9"/>
@@ -1540,7 +1549,7 @@
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25">
+      <c r="A112" s="24">
         <v>45204</v>
       </c>
       <c r="B112" s="9"/>
@@ -1549,7 +1558,7 @@
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25">
+      <c r="A113" s="24">
         <v>45205</v>
       </c>
       <c r="B113" s="9"/>
@@ -1558,7 +1567,7 @@
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
+      <c r="A114" s="24">
         <v>45206</v>
       </c>
       <c r="B114" s="9"/>
@@ -1567,7 +1576,7 @@
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25">
+      <c r="A115" s="24">
         <v>45207</v>
       </c>
       <c r="B115" s="9"/>
@@ -1576,7 +1585,7 @@
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25">
+      <c r="A116" s="24">
         <v>45208</v>
       </c>
       <c r="B116" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="25">
+      <c r="A117" s="24">
         <v>45209</v>
       </c>
       <c r="B117" s="9"/>
@@ -1594,7 +1603,7 @@
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="25">
+      <c r="A118" s="24">
         <v>45210</v>
       </c>
       <c r="B118" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>45211</v>
       </c>
       <c r="B119" s="9"/>
@@ -1612,7 +1621,7 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="25">
+      <c r="A120" s="24">
         <v>45212</v>
       </c>
       <c r="B120" s="9"/>
@@ -1621,445 +1630,445 @@
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25">
+      <c r="A121" s="24">
         <v>45213</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="7"/>
     </row>
     <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="25">
+      <c r="A122" s="24">
         <v>45214</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="7"/>
     </row>
     <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="25">
+      <c r="A123" s="24">
         <v>45215</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="25">
+      <c r="A124" s="24">
         <v>45216</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="7"/>
     </row>
     <row r="125" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="25">
+      <c r="A125" s="24">
         <v>45217</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25">
+      <c r="A126" s="24">
         <v>45218</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25">
+      <c r="A127" s="24">
         <v>45219</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25">
+      <c r="A128" s="24">
         <v>45220</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="7"/>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="25">
+      <c r="A129" s="24">
         <v>45221</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="7"/>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25">
+      <c r="A130" s="24">
         <v>45222</v>
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="7"/>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="25">
+      <c r="A131" s="24">
         <v>45223</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="7"/>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="25">
+      <c r="A132" s="24">
         <v>45224</v>
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="7"/>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="25">
+      <c r="A133" s="24">
         <v>45225</v>
       </c>
       <c r="B133" s="15"/>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="25">
+      <c r="A134" s="24">
         <v>45226</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="7"/>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="25">
+      <c r="A135" s="24">
         <v>45227</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="7"/>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="25">
+      <c r="A136" s="24">
         <v>45228</v>
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="7"/>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="25">
+      <c r="A137" s="24">
         <v>45229</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="7"/>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="25">
+      <c r="A138" s="24">
         <v>45230</v>
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="7"/>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="25">
+      <c r="A139" s="24">
         <v>45231</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="7"/>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25">
+      <c r="A140" s="24">
         <v>45232</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="7"/>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="25">
+      <c r="A141" s="24">
         <v>45233</v>
       </c>
       <c r="B141" s="15"/>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="25">
+      <c r="A142" s="24">
         <v>45234</v>
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="7"/>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="25">
+      <c r="A143" s="24">
         <v>45235</v>
       </c>
       <c r="B143" s="15"/>
       <c r="C143" s="7"/>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="25">
+      <c r="A144" s="24">
         <v>45236</v>
       </c>
       <c r="B144" s="15"/>
       <c r="C144" s="7"/>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="25">
+      <c r="A145" s="24">
         <v>45237</v>
       </c>
       <c r="B145" s="15"/>
       <c r="C145" s="7"/>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="25">
+      <c r="A146" s="24">
         <v>45238</v>
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="7"/>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25">
+      <c r="A147" s="24">
         <v>45239</v>
       </c>
       <c r="B147" s="15"/>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="25">
+      <c r="A148" s="24">
         <v>45240</v>
       </c>
       <c r="B148" s="15"/>
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25">
+      <c r="A149" s="24">
         <v>45241</v>
       </c>
       <c r="B149" s="15"/>
       <c r="C149" s="7"/>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25">
+      <c r="A150" s="24">
         <v>45242</v>
       </c>
       <c r="B150" s="15"/>
       <c r="C150" s="7"/>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25">
+      <c r="A151" s="24">
         <v>45243</v>
       </c>
       <c r="B151" s="15"/>
       <c r="C151" s="7"/>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25">
+      <c r="A152" s="24">
         <v>45244</v>
       </c>
       <c r="B152" s="15"/>
       <c r="C152" s="7"/>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="25">
+      <c r="A153" s="24">
         <v>45245</v>
       </c>
       <c r="B153" s="15"/>
       <c r="C153" s="7"/>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="25">
+      <c r="A154" s="24">
         <v>45246</v>
       </c>
       <c r="B154" s="15"/>
       <c r="C154" s="7"/>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="25">
+      <c r="A155" s="24">
         <v>45247</v>
       </c>
       <c r="B155" s="15"/>
       <c r="C155" s="7"/>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="25">
+      <c r="A156" s="24">
         <v>45248</v>
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="7"/>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="25">
+      <c r="A157" s="24">
         <v>45249</v>
       </c>
       <c r="B157" s="15"/>
       <c r="C157" s="7"/>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="25">
+      <c r="A158" s="24">
         <v>45250</v>
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="7"/>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25">
+      <c r="A159" s="24">
         <v>45251</v>
       </c>
       <c r="B159" s="15"/>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="25">
+      <c r="A160" s="24">
         <v>45252</v>
       </c>
       <c r="B160" s="15"/>
       <c r="C160" s="7"/>
     </row>
     <row r="161" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="25">
+      <c r="A161" s="24">
         <v>45253</v>
       </c>
       <c r="B161" s="15"/>
     </row>
     <row r="162" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="25">
+      <c r="A162" s="24">
         <v>45254</v>
       </c>
       <c r="B162" s="15"/>
     </row>
     <row r="163" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25">
+      <c r="A163" s="24">
         <v>45255</v>
       </c>
       <c r="B163" s="15"/>
     </row>
     <row r="164" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="25">
+      <c r="A164" s="24">
         <v>45256</v>
       </c>
       <c r="B164" s="15"/>
     </row>
     <row r="165" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="25">
+      <c r="A165" s="24">
         <v>45257</v>
       </c>
       <c r="B165" s="15"/>
     </row>
     <row r="166" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="25">
+      <c r="A166" s="24">
         <v>45258</v>
       </c>
       <c r="B166" s="15"/>
     </row>
     <row r="167" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="25">
+      <c r="A167" s="24">
         <v>45259</v>
       </c>
       <c r="B167" s="15"/>
     </row>
     <row r="168" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="25">
+      <c r="A168" s="24">
         <v>45260</v>
       </c>
       <c r="B168" s="15"/>
     </row>
     <row r="169" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="25">
+      <c r="A169" s="24">
         <v>45261</v>
       </c>
       <c r="B169" s="15"/>
     </row>
     <row r="170" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="25">
+      <c r="A170" s="24">
         <v>45262</v>
       </c>
       <c r="B170" s="15"/>
     </row>
     <row r="171" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="25">
+      <c r="A171" s="24">
         <v>45263</v>
       </c>
       <c r="B171" s="15"/>
     </row>
     <row r="172" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="25">
+      <c r="A172" s="24">
         <v>45264</v>
       </c>
       <c r="B172" s="15"/>
     </row>
     <row r="173" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="25">
+      <c r="A173" s="24">
         <v>45265</v>
       </c>
       <c r="B173" s="15"/>
     </row>
     <row r="174" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="25">
+      <c r="A174" s="24">
         <v>45266</v>
       </c>
       <c r="B174" s="15"/>
     </row>
     <row r="175" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="25">
+      <c r="A175" s="24">
         <v>45267</v>
       </c>
       <c r="B175" s="15"/>
     </row>
     <row r="176" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="25">
+      <c r="A176" s="24">
         <v>45268</v>
       </c>
       <c r="B176" s="15"/>
     </row>
     <row r="177" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25">
+      <c r="A177" s="24">
         <v>45269</v>
       </c>
       <c r="B177" s="15"/>
     </row>
     <row r="178" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="25">
+      <c r="A178" s="24">
         <v>45270</v>
       </c>
       <c r="B178" s="15"/>
     </row>
     <row r="179" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="25">
+      <c r="A179" s="24">
         <v>45271</v>
       </c>
       <c r="B179" s="15"/>
     </row>
     <row r="180" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="25">
+      <c r="A180" s="24">
         <v>45272</v>
       </c>
       <c r="B180" s="15"/>
     </row>
     <row r="181" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="25">
+      <c r="A181" s="24">
         <v>45273</v>
       </c>
       <c r="B181" s="15"/>
     </row>
     <row r="182" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="25">
+      <c r="A182" s="24">
         <v>45274</v>
       </c>
       <c r="B182" s="15"/>
     </row>
     <row r="183" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="25">
+      <c r="A183" s="24">
         <v>45275</v>
       </c>
       <c r="B183" s="15"/>
     </row>
     <row r="184" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="25">
+      <c r="A184" s="24">
         <v>45276</v>
       </c>
       <c r="B184" s="15"/>
     </row>
     <row r="185" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="25">
+      <c r="A185" s="24">
         <v>45277</v>
       </c>
       <c r="B185" s="15"/>
     </row>
     <row r="186" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="25">
+      <c r="A186" s="24">
         <v>45278</v>
       </c>
       <c r="B186" s="15"/>
     </row>
     <row r="187" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="25">
+      <c r="A187" s="24">
         <v>45279</v>
       </c>
       <c r="B187" s="15"/>
     </row>
     <row r="188" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="25">
+      <c r="A188" s="24">
         <v>45280</v>
       </c>
       <c r="B188" s="15"/>
@@ -2126,7 +2135,7 @@
       </c>
       <c r="B2" s="17">
         <f>SUM(Zeiterfassung!B6:B11)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2210,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83A4D9-FDCF-48F7-B132-DBAC87D0D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AF4EB-65B5-4CD0-A234-5DF3CAB05364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Erstellung des Grid Systems für das Bauen der Türme, das spätere Pathfinding und evtl. Visualisierung</t>
+  </si>
+  <si>
+    <t>Grid Cell jetzt mit complex object, Anfang Tower Attack System</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,8 +619,12 @@
       <c r="A8" s="24">
         <v>45100</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
@@ -2135,7 +2142,7 @@
       </c>
       <c r="B2" s="17">
         <f>SUM(Zeiterfassung!B6:B11)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2210,7 +2217,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AF4EB-65B5-4CD0-A234-5DF3CAB05364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C777F158-3858-4BF8-B868-D10E2CF902D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -76,13 +76,22 @@
     <t>Masterarbeit</t>
   </si>
   <si>
-    <t>Planung und Konzeption des Tower Defense Spiels, Suche nach besten Wegen Funktionalitäten zu implementieren</t>
-  </si>
-  <si>
     <t>Erstellung des Grid Systems für das Bauen der Türme, das spätere Pathfinding und evtl. Visualisierung</t>
   </si>
   <si>
     <t>Grid Cell jetzt mit complex object, Anfang Tower Attack System</t>
+  </si>
+  <si>
+    <t>Rotation Problembehebung</t>
+  </si>
+  <si>
+    <t>Planung und Konzeption des Tower Defense (TD) Spiels, Suche nach besten Wegen Funktionalitäten zu implementieren</t>
+  </si>
+  <si>
+    <t>Anschauen bestehender verfügbarer TD Beispiele - Speziell verfügbares Unity Beispielprojekt</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Unity Prototyp, Aufbauen eigener Szene, Testen ob Funktionalitäten für meine Bedürfnisse passen</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +578,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -597,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
@@ -610,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -620,10 +629,10 @@
         <v>45100</v>
       </c>
       <c r="B8" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -641,8 +650,12 @@
       <c r="A10" s="24">
         <v>45102</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
@@ -659,8 +672,12 @@
       <c r="A12" s="24">
         <v>45104</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
@@ -668,8 +685,12 @@
       <c r="A13" s="24">
         <v>45105</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
@@ -2142,7 +2163,7 @@
       </c>
       <c r="B2" s="17">
         <f>SUM(Zeiterfassung!B6:B11)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,7 +2172,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,7 +2238,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C777F158-3858-4BF8-B868-D10E2CF902D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F9D300-BB38-435D-8EFA-5C1BB5E62C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Einarbeitung in Unity Prototyp, Aufbauen eigener Szene, Testen ob Funktionalitäten für meine Bedürfnisse passen</t>
+  </si>
+  <si>
+    <t>Mazebuilding mit Towers (teilweise) verifiziert, Implementation einzelner Funktionen im Defense MLAgent Skript (ohne Testlauf bisher)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,8 +701,12 @@
       <c r="A14" s="24">
         <v>45106</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
@@ -2172,7 +2179,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,7 +2245,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F9D300-BB38-435D-8EFA-5C1BB5E62C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B8CA9-6EBD-416F-8892-3CA769D4A501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Mazebuilding mit Towers (teilweise) verifiziert, Implementation einzelner Funktionen im Defense MLAgent Skript (ohne Testlauf bisher)</t>
+  </si>
+  <si>
+    <t>Internetausfall für ~1h</t>
+  </si>
+  <si>
+    <t>Türme bauen für MLAgents Skript implementiert, Scene Reset für Agenten WIP</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +587,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,9 +720,15 @@
       <c r="A15" s="24">
         <v>45107</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2179,7 +2191,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2257,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B8CA9-6EBD-416F-8892-3CA769D4A501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1324FC-AEE7-44DC-8CBB-BF76DE97D4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Türme bauen für MLAgents Skript implementiert, Scene Reset für Agenten WIP</t>
+  </si>
+  <si>
+    <t>BaseHealth reset, Reset der Einheiten/Türme WIP</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +724,7 @@
         <v>45107</v>
       </c>
       <c r="B15" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
@@ -753,8 +756,12 @@
       <c r="A18" s="24">
         <v>45110</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
@@ -2191,7 +2198,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2257,7 +2264,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1324FC-AEE7-44DC-8CBB-BF76DE97D4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC9575-1205-41FF-B77E-8E7019E20060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>BaseHealth reset, Reset der Einheiten/Türme WIP</t>
+  </si>
+  <si>
+    <t>Gegner + Tower Reset, Wave &amp; Currency Reset WIP</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +593,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,8 +772,12 @@
       <c r="A19" s="24">
         <v>45111</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="9">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
@@ -2198,7 +2205,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2271,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC9575-1205-41FF-B77E-8E7019E20060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664853B1-B65E-45BC-93C0-CF4DEB6B6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Gegner + Tower Reset, Wave &amp; Currency Reset WIP</t>
+  </si>
+  <si>
+    <t>Logik für Reset delegate angepasst, Waves Reset + Currency Reset WIP</t>
+  </si>
+  <si>
+    <t>~ 1h Meeting mit Manuell</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +599,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,9 +791,15 @@
       <c r="A20" s="24">
         <v>45112</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2205,7 +2217,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,7 +2283,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664853B1-B65E-45BC-93C0-CF4DEB6B6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D094E03-0B23-4D71-9BEC-73122E27F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>~ 1h Meeting mit Manuell</t>
+  </si>
+  <si>
+    <t>Waves Reset + Currency Reset WIP</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +602,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,8 +809,12 @@
       <c r="A21" s="24">
         <v>45113</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="12">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
@@ -2217,7 +2224,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,7 +2290,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D094E03-0B23-4D71-9BEC-73122E27F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A60427-9DF2-4FB6-8BC0-35983FEF685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,10 +112,10 @@
     <t>Logik für Reset delegate angepasst, Waves Reset + Currency Reset WIP</t>
   </si>
   <si>
-    <t>~ 1h Meeting mit Manuell</t>
+    <t>Waves Reset + Currency Reset WIP</t>
   </si>
   <si>
-    <t>Waves Reset + Currency Reset WIP</t>
+    <t>~ 1h Meeting mit Hr. Heinzig</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A60427-9DF2-4FB6-8BC0-35983FEF685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86BCDA-4DB1-4AB6-9C62-890B17150F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>~ 1h Meeting mit Hr. Heinzig</t>
+  </si>
+  <si>
+    <t>Nach mehr testen Switch auf C# Timer Klasse für Wave</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +605,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,8 +825,12 @@
       <c r="A22" s="24">
         <v>45114</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="9">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
@@ -2224,7 +2231,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,7 +2297,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86BCDA-4DB1-4AB6-9C62-890B17150F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C510E-1F93-4739-89A1-F19E763A823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -118,7 +118,13 @@
     <t>~ 1h Meeting mit Hr. Heinzig</t>
   </si>
   <si>
-    <t>Nach mehr testen Switch auf C# Timer Klasse für Wave</t>
+    <t>Nach Wave Reset WIP</t>
+  </si>
+  <si>
+    <t>Switch auf C# Timer class</t>
+  </si>
+  <si>
+    <t>Keine TimedWave mehr, proprietärer Timer nicht C# da Probleme, Anfang Implementierung Observationen</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +611,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -856,8 +862,12 @@
       <c r="A25" s="24">
         <v>45117</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="9">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
@@ -865,8 +875,12 @@
       <c r="A26" s="24">
         <v>45118</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
@@ -2231,7 +2245,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2311,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C510E-1F93-4739-89A1-F19E763A823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E8663-1F1E-42E1-811C-4602228C2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Keine TimedWave mehr, proprietärer Timer nicht C# da Probleme, Anfang Implementierung Observationen</t>
+  </si>
+  <si>
+    <t>Implementation Observationen anhand anderer Bsp., erstellen von Config Datei für Trainer</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +614,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,8 +891,12 @@
       <c r="A27" s="24">
         <v>45119</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
@@ -2245,7 +2252,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,7 +2318,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E8663-1F1E-42E1-811C-4602228C2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE2ACA6-4AFA-4611-966D-1E498BCAAA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Implementation Observationen anhand anderer Bsp., erstellen von Config Datei für Trainer</t>
+  </si>
+  <si>
+    <t>Setup für anfängliches Training vereinfacht und ressourcen optimiert, anfängliche Trainingsdurchläufe</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +617,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,8 +907,12 @@
       <c r="A28" s="24">
         <v>45120</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="9">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
@@ -2252,7 +2259,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,7 +2325,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE2ACA6-4AFA-4611-966D-1E498BCAAA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6697BA-0537-467D-B210-1ABAF761814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Setup für anfängliches Training vereinfacht und ressourcen optimiert, anfängliche Trainingsdurchläufe</t>
+  </si>
+  <si>
+    <t>Behebung alter Fehler im Türmeplatzieren, Behebung fehler in Obersation, Training und Korrektur der Observation infolgedessen</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +620,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,8 +923,12 @@
       <c r="A29" s="24">
         <v>45121</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="9">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
@@ -2259,7 +2266,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,7 +2332,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6697BA-0537-467D-B210-1ABAF761814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8640CF7-D992-4C8C-8A41-9E98DA60B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Behebung alter Fehler im Türmeplatzieren, Behebung fehler in Obersation, Training und Korrektur der Observation infolgedessen</t>
+  </si>
+  <si>
+    <t>Gesundheitl. Probleme</t>
+  </si>
+  <si>
+    <t>Brainstorming Anpassung Observations, Mehrere Felder zum spawnen machen für Training WIP</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +626,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,9 +960,15 @@
       <c r="A32" s="24">
         <v>45124</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2266,7 +2278,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2344,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8640CF7-D992-4C8C-8A41-9E98DA60B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD02699F-8D50-4EA3-9D2A-5D8933B480F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Brainstorming Anpassung Observations, Mehrere Felder zum spawnen machen für Training WIP</t>
+  </si>
+  <si>
+    <t>FileWriter erstellt mehr Einsicht in Observationen, mehr Training</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,8 +978,12 @@
       <c r="A33" s="24">
         <v>45125</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="9">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
@@ -2278,7 +2285,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2344,7 +2351,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD02699F-8D50-4EA3-9D2A-5D8933B480F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A11C499-2FC7-4B6A-9DA4-A728D4D572A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>FileWriter erstellt mehr Einsicht in Observationen, mehr Training</t>
+  </si>
+  <si>
+    <t>Simplified Szenario, fixed starken memory leak, training, untersuchung der trainingsdetails</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -991,8 +994,12 @@
       <c r="A34" s="24">
         <v>45126</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="12">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
@@ -2285,7 +2292,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2358,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A11C499-2FC7-4B6A-9DA4-A728D4D572A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3CCB73-B16E-4734-99AF-FF8AE02B214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Simplified Szenario, fixed starken memory leak, training, untersuchung der trainingsdetails</t>
+  </si>
+  <si>
+    <t>Brainstorming Anpassung des Trainings (Observationen, Rewards, Szenario), Recherche über ähnliche Szenarien</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +635,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,8 +1010,12 @@
       <c r="A35" s="24">
         <v>45127</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="9">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
@@ -2292,7 +2299,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,7 +2365,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3CCB73-B16E-4734-99AF-FF8AE02B214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F343A316-E863-4F68-844A-1E08856A6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Brainstorming Anpassung des Trainings (Observationen, Rewards, Szenario), Recherche über ähnliche Szenarien</t>
+  </si>
+  <si>
+    <t>Brainstorming, Kleine Veränderung im Szenario, Training</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +638,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,8 +1026,12 @@
       <c r="A36" s="24">
         <v>45128</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="9">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
@@ -2299,7 +2306,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,7 +2372,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F343A316-E863-4F68-844A-1E08856A6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE41E74B-5B63-416E-8D61-9466F02AEA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Brainstorming, Kleine Veränderung im Szenario, Training</t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +641,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,8 +1042,12 @@
       <c r="A37" s="24">
         <v>45129</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="9">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
@@ -2306,7 +2313,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,7 +2379,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE41E74B-5B63-416E-8D61-9466F02AEA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B0410-1684-4751-BD5B-4D79E44115D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>Anpassungen Config Datei, Testtraining für Auswirkungen</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +644,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,8 +1085,12 @@
       <c r="A41" s="24">
         <v>45133</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
@@ -2313,7 +2320,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(Zeiterfassung!B12:B41)</f>
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2379,7 +2386,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B0410-1684-4751-BD5B-4D79E44115D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187F730-3A5D-4F9E-B0FA-C54DB833383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Anpassungen Config Datei, Testtraining für Auswirkungen</t>
+  </si>
+  <si>
+    <t>AttackAgent Scene und Skript</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,8 +1101,12 @@
       <c r="A42" s="24">
         <v>45134</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="9">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
@@ -2329,7 +2336,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,7 +2393,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187F730-3A5D-4F9E-B0FA-C54DB833383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1EBEE9-E59E-4D34-8F7B-AD17CCC140F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>AttackAgent Scene und Skript</t>
+  </si>
+  <si>
+    <t>AttackAgent Script Units senden WIP</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,8 +1117,12 @@
       <c r="A43" s="24">
         <v>45135</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="9">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
@@ -2336,7 +2343,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,7 +2400,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1EBEE9-E59E-4D34-8F7B-AD17CCC140F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71980A6-A7C9-457B-8D70-6529EEADF922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>AttackAgent Script Units senden WIP</t>
+  </si>
+  <si>
+    <t>Bugfixing und aufräumen AttackAgent Skript + Tower Layout Setup</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +653,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,8 +1151,12 @@
       <c r="A46" s="24">
         <v>45138</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="9">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
@@ -2343,7 +2350,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,7 +2407,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71980A6-A7C9-457B-8D70-6529EEADF922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D1E56-7EFC-4B71-9152-0F1C30537909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Bugfixing und aufräumen AttackAgent Skript + Tower Layout Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Phantomeinträge in AttackSkript, Aufteilen der Komplexität in nur Turmtyp auswählen </t>
   </si>
 </sst>
 </file>
@@ -314,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,7 +616,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +656,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1164,8 +1167,12 @@
       <c r="A47" s="24">
         <v>45139</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="9">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
@@ -2350,7 +2357,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2414,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D1E56-7EFC-4B71-9152-0F1C30537909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0218DC2-2ACC-482D-BEA1-87F0EEB7BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed Phantomeinträge in AttackSkript, Aufteilen der Komplexität in nur Turmtyp auswählen </t>
+  </si>
+  <si>
+    <t>Meeting mit Hr. Heinzig über Trainingsproblem</t>
+  </si>
+  <si>
+    <t>Nur Turmtyp auswahl test, Bruteforce debug, bugfix, Training (progress)</t>
   </si>
 </sst>
 </file>
@@ -317,9 +323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -463,7 +469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,7 +622,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +662,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,15 +1179,21 @@
       <c r="C47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>45140</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="12">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
@@ -2357,7 +2369,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,7 +2426,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0218DC2-2ACC-482D-BEA1-87F0EEB7BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB862D2-1605-4476-B4F2-459691228CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Nur Turmtyp auswahl test, Bruteforce debug, bugfix, Training (progress)</t>
+  </si>
+  <si>
+    <t>Training mit versch. Config Variablenwerten</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +665,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,8 +1204,12 @@
       <c r="A49" s="24">
         <v>45141</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="9">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
@@ -2369,7 +2376,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,7 +2433,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB862D2-1605-4476-B4F2-459691228CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB939F-98EF-4AE0-9F76-29299240B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Training mit versch. Config Variablenwerten</t>
+  </si>
+  <si>
+    <t>Bugfix + Training mit versch. Config Variablenwerten</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +668,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,8 +1220,12 @@
       <c r="A50" s="24">
         <v>45142</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="9">
+        <v>8</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
@@ -2376,7 +2383,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,7 +2440,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Forschungsseminar_Zeittabelle.xlsx
+++ b/Forschungsseminar_Zeittabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master Thesis\Master-Thesis-TD-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB939F-98EF-4AE0-9F76-29299240B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E87F24-EA7F-4456-8B2A-4738A47E9160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Name, Vorname: Müller, Stefan</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Bugfix + Training mit versch. Config Variablenwerten</t>
+  </si>
+  <si>
+    <t>Bugfix + erneutes Training</t>
+  </si>
+  <si>
+    <t>Simpleres Training anders aufgebaut gutes Resultat</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +674,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B6:B129)</f>
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,8 +1257,12 @@
       <c r="A53" s="24">
         <v>45145</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="9">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
@@ -1260,8 +1270,12 @@
       <c r="A54" s="24">
         <v>45146</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="9">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
@@ -1269,8 +1283,12 @@
       <c r="A55" s="24">
         <v>45147</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="9">
+        <v>8</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
@@ -2383,7 +2401,7 @@
       </c>
       <c r="B4" s="17">
         <f>SUM(Zeiterfassung!B42:B53)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2410,7 @@
       </c>
       <c r="B5" s="17">
         <f>SUM(Zeiterfassung!B54:B56)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2458,7 @@
       </c>
       <c r="B12" s="19">
         <f>SUM(B2:B8)</f>
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
